--- a/All_result.xlsx
+++ b/All_result.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
-  <si>
-    <t>choixAlgo=1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>nb_bit_moy_genere</t>
   </si>
@@ -51,10 +48,10 @@
     <t>nbPaquetsTotalsommePaquets_consommer</t>
   </si>
   <si>
-    <t>nb_tours=10000</t>
+    <t>choixAlgo=2</t>
   </si>
   <si>
-    <t>choixAlgo=2</t>
+    <t>nb_tours=40000</t>
   </si>
 </sst>
 </file>
@@ -105,6 +102,1384 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$E$4:$E$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="90"/>
+                <c:pt idx="0">
+                  <c:v>0.53610478517454696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62141892103992302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66731608346666904</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73632935118714005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78514905651932798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89499697542847401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92805811634540303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.14040212598406</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.26449652415603</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.27909430898216</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5164084446631201</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7960624706066699</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9063438462603901</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4204522340694599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7954802259887002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.6255799615778699</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.3397179612525303</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.2401124084984199</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.5272225556785806</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.745279104616399</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40.520349998076703</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>186.23761346299199</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>380.79010302794097</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>512.99896215557203</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>739.269787218896</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1044.4140799775701</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1065.1538086370999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1388.84343570751</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1588.52183245693</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1677.85949673549</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1968.36592223973</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2243.4313583662301</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2435.7218783018702</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2598.23170658462</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2685.45285443082</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="214471040"/>
+        <c:axId val="214472576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="214471040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214472576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="214472576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214471040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>delais</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$A$4:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>388</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$E$4:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0.53610478517454696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62141892103992302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66731608346666904</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73632935118714005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78514905651932798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89499697542847401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92805811634540303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.14040212598406</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.26449652415603</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.27909430898216</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5164084446631201</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7960624706066699</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9063438462603901</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4204522340694599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7954802259887002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.6255799615778699</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.3397179612525303</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.2401124084984199</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.5272225556785806</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.745279104616399</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40.520349998076703</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>186.23761346299199</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>380.79010302794097</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>512.99896215557203</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>739.269787218896</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1044.4140799775701</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1065.1538086370999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1388.84343570751</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1588.52183245693</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1677.85949673549</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1968.36592223973</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2243.4313583662301</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2435.7218783018702</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2598.23170658462</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2685.45285443082</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="141672448"/>
+        <c:axId val="141673984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="141672448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="141673984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="141673984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="141672448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Débit</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$A$4:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>388</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$4:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>2385.6815124999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2405.1602250000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2418.067</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2432.2744625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2446.6055000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2465.6397999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2475.3105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2491.4586374999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2504.6445874999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2517.3276624999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2535.4488000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2551.6008875000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2563.035875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2581.098375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2595.2643499999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2613.8601250000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2624.5345750000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2637.5263875000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2656.5200125000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2671.6629250000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2690.7022750000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2695.5417874999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2696.5044375000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2696.9390625000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2697.0484000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2697.2092499999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2697.2597249999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2697.2819249999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2696.9401625</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2697.1935874999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2697.3586249999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2697.2811999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2697.3331125</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2697.2853125000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2697.2403749999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="150346752"/>
+        <c:axId val="150356736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="150346752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="150356736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="150356736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="150346752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>bit</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> par ur</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$A$4:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>388</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$H$4:$H$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>7.9303996660543499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9502697478217597</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9626054401644097</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9751387448287403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.9868008830967501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0062874448974792</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0175713401462794</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0382407139779701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.05443832379272</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0679115069795202</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.0916014589590795</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.11594766382904</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.1313038881198292</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.1636687571367101</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.1872669419926503</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.22096463667717</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.24597818473441</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.2711556797810601</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.3146637960191807</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.3547858526748406</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.4086584389313899</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.4236858859198094</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.4265763671875007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.4279345703124999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.4282762499999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.4287789062500007</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.4289366406250004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.4291067697918507</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.4281924997188398</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.4287724340485894</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.4292457031249999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.4290037499999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.4291659765624996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.4290343815568907</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.4288761718750003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="160212096"/>
+        <c:axId val="160213632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="160212096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="160213632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="160213632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="160212096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1533525</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graphique 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Graphique 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -394,24 +1769,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -419,519 +1786,519 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="B4">
-        <v>1503.2049999999999</v>
+        <v>2385.6815124999998</v>
       </c>
       <c r="C4" s="1">
-        <v>30064943</v>
+        <v>190855480</v>
       </c>
       <c r="D4" s="1">
-        <v>30064100</v>
+        <v>190854521</v>
       </c>
       <c r="E4">
-        <v>1.63051613053442E-2</v>
+        <v>0.53610478517454696</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>79.260078125000007</v>
+        <v>94.008562499999996</v>
       </c>
       <c r="H4">
-        <v>5.9267108185177504</v>
+        <v>7.9303996660543499</v>
       </c>
       <c r="I4">
-        <v>0.22165000000000001</v>
+        <v>558.4512125</v>
       </c>
       <c r="J4">
-        <v>300641</v>
+        <v>4771362</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>210</v>
+        <v>322</v>
       </c>
       <c r="B5">
-        <v>1573.905</v>
+        <v>2405.1602250000001</v>
       </c>
       <c r="C5" s="1">
-        <v>31478897</v>
+        <v>192416951</v>
       </c>
       <c r="D5" s="1">
-        <v>31478100</v>
+        <v>192412818</v>
       </c>
       <c r="E5">
-        <v>3.58534981463303E-2</v>
+        <v>0.62141892103992302</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>82.921625000000006</v>
+        <v>94.539253906249996</v>
       </c>
       <c r="H5">
-        <v>5.9314480691858096</v>
+        <v>7.9502697478217597</v>
       </c>
       <c r="I5">
-        <v>0.84470000000000001</v>
+        <v>656.94922499999996</v>
       </c>
       <c r="J5">
-        <v>314781</v>
+        <v>4810317</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>220</v>
+        <v>324</v>
       </c>
       <c r="B6">
-        <v>1644.08735</v>
+        <v>2418.067</v>
       </c>
       <c r="C6" s="1">
-        <v>32882958</v>
+        <v>193445649</v>
       </c>
       <c r="D6" s="1">
-        <v>32881747</v>
+        <v>193445360</v>
       </c>
       <c r="E6">
-        <v>7.0148867904444703E-2</v>
+        <v>0.66731608346666904</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>86.569156250000006</v>
+        <v>94.899332031249997</v>
       </c>
       <c r="H6">
-        <v>5.9348770293114601</v>
+        <v>7.9626054401644097</v>
       </c>
       <c r="I6">
-        <v>4.3059000000000003</v>
+        <v>711.24802499999998</v>
       </c>
       <c r="J6">
-        <v>328815</v>
+        <v>4836134</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>230</v>
+        <v>326</v>
       </c>
       <c r="B7">
-        <v>1719.7650000000001</v>
+        <v>2432.2744625</v>
       </c>
       <c r="C7" s="1">
-        <v>34396100</v>
+        <v>194585043</v>
       </c>
       <c r="D7" s="1">
-        <v>34395300</v>
+        <v>194581957</v>
       </c>
       <c r="E7">
-        <v>0.13598951019470601</v>
+        <v>0.73632935118714005</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>90.424437499999996</v>
+        <v>95.306902343749996</v>
       </c>
       <c r="H7">
-        <v>5.9433774470535097</v>
+        <v>7.9751387448287403</v>
       </c>
       <c r="I7">
-        <v>15.034649999999999</v>
+        <v>793.51032499999997</v>
       </c>
       <c r="J7">
-        <v>343953</v>
+        <v>4864546</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>240</v>
+        <v>328</v>
       </c>
       <c r="B8">
-        <v>1794.3115</v>
+        <v>2446.6055000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>35887761</v>
+        <v>195728765</v>
       </c>
       <c r="D8" s="1">
-        <v>35886230</v>
+        <v>195728440</v>
       </c>
       <c r="E8">
-        <v>0.31350004737249798</v>
+        <v>0.78514905651932798</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>94.193609374999994</v>
+        <v>95.728468749999905</v>
       </c>
       <c r="H8">
-        <v>5.9528703430152401</v>
+        <v>7.9868008830967501</v>
       </c>
       <c r="I8">
-        <v>70.619500000000002</v>
+        <v>853.03195000000005</v>
       </c>
       <c r="J8">
-        <v>358858</v>
+        <v>4893211</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="B9">
-        <v>1870.9366</v>
+        <v>2465.6397999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>37421738</v>
+        <v>197253545</v>
       </c>
       <c r="D9" s="1">
-        <v>37418732</v>
+        <v>197251184</v>
       </c>
       <c r="E9">
-        <v>1.0119193970816101</v>
+        <v>0.89499697542847401</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>97.998999999999995</v>
+        <v>96.238417968749999</v>
       </c>
       <c r="H9">
-        <v>5.9660576893641704</v>
+        <v>8.0062874448974792</v>
       </c>
       <c r="I9">
-        <v>488.26459999999997</v>
+        <v>986.81943750000005</v>
       </c>
       <c r="J9">
-        <v>374180</v>
+        <v>4931277</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>260</v>
+        <v>332</v>
       </c>
       <c r="B10">
-        <v>1920.1084499999999</v>
+        <v>2475.3105</v>
       </c>
       <c r="C10" s="1">
-        <v>38906023</v>
+        <v>198025206</v>
       </c>
       <c r="D10" s="1">
-        <v>38402169</v>
+        <v>198024840</v>
       </c>
       <c r="E10">
-        <v>119.361368696535</v>
+        <v>0.92805811634540303</v>
       </c>
       <c r="F10">
-        <v>20.3161334843691</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>99.990078124999997</v>
+        <v>96.479906249999999</v>
       </c>
       <c r="H10">
-        <v>6.0009343114512097</v>
+        <v>8.0175713401462794</v>
       </c>
       <c r="I10">
-        <v>116200.61145</v>
+        <v>1026.5227625</v>
       </c>
       <c r="J10">
-        <v>384015</v>
+        <v>4950621</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>270</v>
+        <v>334</v>
       </c>
       <c r="B11">
-        <v>1919.8430499999999</v>
+        <v>2491.4586374999999</v>
       </c>
       <c r="C11" s="1">
-        <v>40333966</v>
+        <v>199317966</v>
       </c>
       <c r="D11" s="1">
-        <v>38396861</v>
+        <v>199316691</v>
       </c>
       <c r="E11">
-        <v>465.61080118137897</v>
+        <v>1.14040212598406</v>
       </c>
       <c r="F11">
-        <v>56.681199506195902</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>99.998000000000005</v>
+        <v>96.859605468750004</v>
       </c>
       <c r="H11">
-        <v>5.9996295238404702</v>
+        <v>8.0382407139779701</v>
       </c>
       <c r="I11">
-        <v>470410.05145000003</v>
+        <v>1286.0663500000001</v>
       </c>
       <c r="J11">
-        <v>383958</v>
+        <v>4982916</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>280</v>
+        <v>336</v>
       </c>
       <c r="B12">
-        <v>1920.62655</v>
+        <v>2504.6445874999999</v>
       </c>
       <c r="C12" s="1">
-        <v>41995397</v>
+        <v>200373640</v>
       </c>
       <c r="D12" s="1">
-        <v>38412531</v>
+        <v>200371567</v>
       </c>
       <c r="E12">
-        <v>840.98494981971498</v>
+        <v>1.26449652415603</v>
       </c>
       <c r="F12">
-        <v>74.083542689038396</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>100</v>
+        <v>97.176414062500001</v>
       </c>
       <c r="H12">
-        <v>6.0019579687500002</v>
+        <v>8.05443832379272</v>
       </c>
       <c r="I12">
-        <v>885087.98994999996</v>
+        <v>1440.0499374999999</v>
       </c>
       <c r="J12">
-        <v>384115</v>
+        <v>5009287</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>290</v>
+        <v>338</v>
       </c>
       <c r="B13">
-        <v>1921.06195</v>
+        <v>2517.3276624999999</v>
       </c>
       <c r="C13" s="1">
-        <v>43361263</v>
+        <v>201388964</v>
       </c>
       <c r="D13" s="1">
-        <v>38421239</v>
+        <v>201386213</v>
       </c>
       <c r="E13">
-        <v>1150.8620189742401</v>
+        <v>1.27909430898216</v>
       </c>
       <c r="F13">
-        <v>80.943766999388302</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>99.996437499999999</v>
+        <v>97.505394531250005</v>
       </c>
       <c r="H13">
-        <v>6.0035324695942203</v>
+        <v>8.0679115069795202</v>
       </c>
       <c r="I13">
-        <v>1246575.01385</v>
+        <v>1460.8128750000001</v>
       </c>
       <c r="J13">
-        <v>384205</v>
+        <v>5034653</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="B14">
-        <v>1921.5038500000001</v>
+        <v>2535.4488000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>44836567</v>
+        <v>202838268</v>
       </c>
       <c r="D14" s="1">
-        <v>38430077</v>
+        <v>202835904</v>
       </c>
       <c r="E14">
-        <v>1431.55017135362</v>
+        <v>1.5164084446631201</v>
       </c>
       <c r="F14">
-        <v>84.678097181057097</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>99.998531249999999</v>
+        <v>97.919769531249997</v>
       </c>
       <c r="H14">
-        <v>6.00478772656973</v>
+        <v>8.0916014589590795</v>
       </c>
       <c r="I14">
-        <v>1605068.34785</v>
+        <v>1759.213</v>
       </c>
       <c r="J14">
-        <v>384293</v>
+        <v>5070895</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="B15">
-        <v>1920.6829499999999</v>
+        <v>2551.6008875000002</v>
       </c>
       <c r="C15" s="1">
-        <v>46413946</v>
+        <v>204128932</v>
       </c>
       <c r="D15" s="1">
-        <v>38413659</v>
+        <v>204128071</v>
       </c>
       <c r="E15">
-        <v>1717.6597739809999</v>
+        <v>1.7960624706066699</v>
       </c>
       <c r="F15">
-        <v>87.060789790876399</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>99.997781249999903</v>
+        <v>98.247957031249996</v>
       </c>
       <c r="H15">
-        <v>6.0022673940578004</v>
+        <v>8.11594766382904</v>
       </c>
       <c r="I15">
-        <v>1995903.8663000001</v>
+        <v>2112.9878874999999</v>
       </c>
       <c r="J15">
-        <v>384127</v>
+        <v>5103200</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="B16">
-        <v>1921.06095</v>
+        <v>2563.035875</v>
       </c>
       <c r="C16" s="1">
-        <v>47983400</v>
+        <v>205045762</v>
       </c>
       <c r="D16" s="1">
-        <v>38421219</v>
+        <v>205042870</v>
       </c>
       <c r="E16">
-        <v>1985.53860569227</v>
+        <v>1.9063438462603901</v>
       </c>
       <c r="F16">
-        <v>88.488176884736006</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>100</v>
+        <v>98.501878906249999</v>
       </c>
       <c r="H16">
-        <v>6.0033154687500003</v>
+        <v>8.1313038881198292</v>
       </c>
       <c r="I16">
-        <v>2382127.8645500001</v>
+        <v>2255.6430624999998</v>
       </c>
       <c r="J16">
-        <v>384205</v>
+        <v>5126070</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="B17">
-        <v>1921.0958000000001</v>
+        <v>2581.098375</v>
       </c>
       <c r="C17" s="1">
-        <v>49439282</v>
+        <v>206492490</v>
       </c>
       <c r="D17" s="1">
-        <v>38421916</v>
+        <v>206487870</v>
       </c>
       <c r="E17">
-        <v>2230.4060060747802</v>
+        <v>2.4204522340694599</v>
       </c>
       <c r="F17">
-        <v>90.109080687434698</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>100</v>
+        <v>98.802789062499997</v>
       </c>
       <c r="H17">
-        <v>6.0034243749999998</v>
+        <v>8.1636687571367101</v>
       </c>
       <c r="I17">
-        <v>2754924.8876</v>
+        <v>2915.3297375000002</v>
       </c>
       <c r="J17">
-        <v>384211</v>
+        <v>5162194</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B18">
-        <v>1920.38085</v>
+        <v>2595.2643499999999</v>
       </c>
       <c r="C18" s="1">
-        <v>50819319</v>
+        <v>207624709</v>
       </c>
       <c r="D18" s="1">
-        <v>38407617</v>
+        <v>207621148</v>
       </c>
       <c r="E18">
-        <v>2447.0701438286901</v>
+        <v>2.7954802259887002</v>
       </c>
       <c r="F18">
-        <v>91.017215701386206</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>100</v>
+        <v>99.058710937499995</v>
       </c>
       <c r="H18">
-        <v>6.0011901562499999</v>
+        <v>8.1872669419926503</v>
       </c>
       <c r="I18">
-        <v>3109364.4622499999</v>
+        <v>3402.1559124999999</v>
       </c>
       <c r="J18">
-        <v>384068</v>
+        <v>5190525</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -939,843 +2306,644 @@
         <v>350</v>
       </c>
       <c r="B19">
-        <v>1920.37165</v>
+        <v>2613.8601250000002</v>
       </c>
       <c r="C19" s="1">
-        <v>52191601</v>
+        <v>209114990</v>
       </c>
       <c r="D19" s="1">
-        <v>38407433</v>
+        <v>209108810</v>
       </c>
       <c r="E19">
-        <v>2642.3001567438901</v>
+        <v>3.6255799615778699</v>
       </c>
       <c r="F19">
-        <v>91.698301854368694</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>100</v>
+        <v>99.359542968750006</v>
       </c>
       <c r="H19">
-        <v>6.0011614062499996</v>
+        <v>8.22096463667717</v>
       </c>
       <c r="I19">
-        <v>3448299.6536500002</v>
+        <v>4488.3979749999999</v>
       </c>
       <c r="J19">
-        <v>384066</v>
+        <v>5227717</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B20">
-        <v>1920.92455</v>
+        <v>2624.5345750000001</v>
       </c>
       <c r="C20" s="1">
-        <v>54004008</v>
+        <v>209966981</v>
       </c>
       <c r="D20" s="1">
-        <v>38418491</v>
+        <v>209962766</v>
       </c>
       <c r="E20">
-        <v>2878.4884779671802</v>
+        <v>4.3397179612525303</v>
       </c>
       <c r="F20">
-        <v>92.491221494259094</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>100</v>
+        <v>99.462675781249999</v>
       </c>
       <c r="H20">
-        <v>6.00288921875</v>
+        <v>8.24597818473441</v>
       </c>
       <c r="I20">
-        <v>3894967.5477999998</v>
+        <v>5426.5711000000001</v>
       </c>
       <c r="J20">
-        <v>384177</v>
+        <v>5249066</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="B21">
-        <v>1921.07725</v>
+        <v>2637.5263875000001</v>
       </c>
       <c r="C21" s="1">
-        <v>55487446</v>
+        <v>211019046</v>
       </c>
       <c r="D21" s="1">
-        <v>38421545</v>
+        <v>211002111</v>
       </c>
       <c r="E21">
-        <v>3076.4002998383598</v>
+        <v>5.2401124084984199</v>
       </c>
       <c r="F21">
-        <v>92.825742373251899</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>100</v>
+        <v>99.650765625000005</v>
       </c>
       <c r="H21">
-        <v>6.0033664062499996</v>
+        <v>8.2711556797810601</v>
       </c>
       <c r="I21">
-        <v>4270278.3688000003</v>
+        <v>6622.6136749999996</v>
       </c>
       <c r="J21">
-        <v>384207</v>
+        <v>5275046</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="B22">
-        <v>1921.06825</v>
+        <v>2656.5200125000001</v>
       </c>
       <c r="C22" s="1">
-        <v>56800670</v>
+        <v>212523917</v>
       </c>
       <c r="D22" s="1">
-        <v>38421365</v>
+        <v>212521601</v>
       </c>
       <c r="E22">
-        <v>3222.8967509701802</v>
+        <v>8.5272225556785806</v>
       </c>
       <c r="F22">
-        <v>93.156553628642897</v>
+        <v>0.186239927845438</v>
       </c>
       <c r="G22">
-        <v>100</v>
+        <v>99.843183593749998</v>
       </c>
       <c r="H22">
-        <v>6.0033382812499996</v>
+        <v>8.3146637960191807</v>
       </c>
       <c r="I22">
-        <v>4580600.6876999997</v>
+        <v>11000.2826625</v>
       </c>
       <c r="J22">
-        <v>384207</v>
+        <v>5313039</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="B23">
-        <v>1920.6885</v>
+        <v>2671.6629250000001</v>
       </c>
       <c r="C23" s="1">
-        <v>58511276</v>
+        <v>213743917</v>
       </c>
       <c r="D23" s="1">
-        <v>38413770</v>
+        <v>213733034</v>
       </c>
       <c r="E23">
-        <v>3424.1778195459301</v>
+        <v>14.745279104616399</v>
       </c>
       <c r="F23">
-        <v>93.667785208691797</v>
+        <v>1.0100838074612399</v>
       </c>
       <c r="G23">
+        <v>99.930109375000001</v>
+      </c>
+      <c r="H23">
+        <v>8.3547858526748406</v>
+      </c>
+      <c r="I23">
+        <v>19332.840124999999</v>
+      </c>
+      <c r="J23">
+        <v>5343319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>360</v>
+      </c>
+      <c r="B24">
+        <v>2690.7022750000001</v>
+      </c>
+      <c r="C24" s="1">
+        <v>215282968</v>
+      </c>
+      <c r="D24" s="1">
+        <v>215256182</v>
+      </c>
+      <c r="E24">
+        <v>40.520349998076703</v>
+      </c>
+      <c r="F24">
+        <v>4.6176265251372204</v>
+      </c>
+      <c r="G24">
+        <v>99.997457031249994</v>
+      </c>
+      <c r="H24">
+        <v>8.4086584389313899</v>
+      </c>
+      <c r="I24">
+        <v>54095.604574999998</v>
+      </c>
+      <c r="J24">
+        <v>5381401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>362</v>
+      </c>
+      <c r="B25">
+        <v>2695.5417874999998</v>
+      </c>
+      <c r="C25" s="1">
+        <v>216331408</v>
+      </c>
+      <c r="D25" s="1">
+        <v>215643343</v>
+      </c>
+      <c r="E25">
+        <v>186.23761346299199</v>
+      </c>
+      <c r="F25">
+        <v>29.030276892827398</v>
+      </c>
+      <c r="G25">
+        <v>99.998601562499999</v>
+      </c>
+      <c r="H25">
+        <v>8.4236858859198094</v>
+      </c>
+      <c r="I25">
+        <v>251497.088575</v>
+      </c>
+      <c r="J25">
+        <v>5391075</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>364</v>
+      </c>
+      <c r="B26">
+        <v>2696.5044375000002</v>
+      </c>
+      <c r="C26" s="1">
+        <v>217738110</v>
+      </c>
+      <c r="D26" s="1">
+        <v>215720355</v>
+      </c>
+      <c r="E26">
+        <v>380.79010302794097</v>
+      </c>
+      <c r="F26">
+        <v>51.059140890520503</v>
+      </c>
+      <c r="G26">
         <v>100</v>
       </c>
-      <c r="H23">
-        <v>6.0021515624999999</v>
-      </c>
-      <c r="I23">
-        <v>5004524.3734499998</v>
-      </c>
-      <c r="J23">
-        <v>384131</v>
+      <c r="H26">
+        <v>8.4265763671875007</v>
+      </c>
+      <c r="I26">
+        <v>518776.47334999999</v>
+      </c>
+      <c r="J26">
+        <v>5393003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>366</v>
+      </c>
+      <c r="B27">
+        <v>2696.9390625000001</v>
+      </c>
+      <c r="C27" s="1">
+        <v>218391519</v>
+      </c>
+      <c r="D27" s="1">
+        <v>215755125</v>
+      </c>
+      <c r="E27">
+        <v>512.99896215557203</v>
+      </c>
+      <c r="F27">
+        <v>54.777384409566999</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+      <c r="H27">
+        <v>8.4279345703124999</v>
+      </c>
+      <c r="I27">
+        <v>700618.66303749999</v>
+      </c>
+      <c r="J27">
+        <v>5393872</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>368</v>
+      </c>
+      <c r="B28">
+        <v>2697.0484000000001</v>
+      </c>
+      <c r="C28" s="1">
+        <v>219657710</v>
+      </c>
+      <c r="D28" s="1">
+        <v>215763872</v>
+      </c>
+      <c r="E28">
+        <v>739.269787218896</v>
+      </c>
+      <c r="F28">
+        <v>68.674741680150504</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+      <c r="H28">
+        <v>8.4282762499999997</v>
+      </c>
+      <c r="I28">
+        <v>1015141.9098375</v>
+      </c>
+      <c r="J28">
+        <v>5394088</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
+      <c r="A29">
+        <v>370</v>
+      </c>
+      <c r="B29">
+        <v>2697.2092499999999</v>
+      </c>
+      <c r="C29" s="1">
+        <v>221003977</v>
+      </c>
+      <c r="D29" s="1">
+        <v>215776740</v>
+      </c>
+      <c r="E29">
+        <v>1044.4140799775701</v>
+      </c>
+      <c r="F29">
+        <v>80.271417904305395</v>
+      </c>
+      <c r="G29">
+        <v>100</v>
+      </c>
+      <c r="H29">
+        <v>8.4287789062500007</v>
+      </c>
+      <c r="I29">
+        <v>1440568.8042625</v>
+      </c>
+      <c r="J29">
+        <v>5394412</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>372</v>
+      </c>
+      <c r="B30">
+        <v>2697.2597249999999</v>
+      </c>
+      <c r="C30" s="1">
+        <v>221811202</v>
+      </c>
+      <c r="D30" s="1">
+        <v>215780778</v>
+      </c>
+      <c r="E30">
+        <v>1065.1538086370999</v>
+      </c>
+      <c r="F30">
+        <v>78.537774016755904</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+      <c r="H30">
+        <v>8.4289366406250004</v>
+      </c>
+      <c r="I30">
+        <v>1477327.964625</v>
+      </c>
+      <c r="J30">
+        <v>5394515</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" t="s">
-        <v>8</v>
-      </c>
-      <c r="I31" t="s">
-        <v>9</v>
-      </c>
-      <c r="J31" t="s">
-        <v>10</v>
+      <c r="A31">
+        <v>374</v>
+      </c>
+      <c r="B31">
+        <v>2697.2819249999998</v>
+      </c>
+      <c r="C31" s="1">
+        <v>223474146</v>
+      </c>
+      <c r="D31" s="1">
+        <v>215782554</v>
+      </c>
+      <c r="E31">
+        <v>1388.84343570751</v>
+      </c>
+      <c r="F31">
+        <v>85.057772121047194</v>
+      </c>
+      <c r="G31">
+        <v>99.998804687499998</v>
+      </c>
+      <c r="H31">
+        <v>8.4291067697918507</v>
+      </c>
+      <c r="I31">
+        <v>1938674.7397874999</v>
+      </c>
+      <c r="J31">
+        <v>5394557</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>200</v>
+        <v>376</v>
       </c>
       <c r="B32">
-        <v>1495.54</v>
+        <v>2696.9401625</v>
       </c>
       <c r="C32" s="1">
-        <v>29911369</v>
+        <v>224720521</v>
       </c>
       <c r="D32" s="1">
-        <v>29910800</v>
+        <v>215755213</v>
       </c>
       <c r="E32">
-        <v>1.17950706768123E-2</v>
+        <v>1588.52183245693</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>86.349697147114796</v>
       </c>
       <c r="G32">
-        <v>78.842124999999996</v>
+        <v>99.996980468749996</v>
       </c>
       <c r="H32">
-        <v>5.9277480154168796</v>
+        <v>8.4281924997188398</v>
       </c>
       <c r="I32">
-        <v>0.77185000000000004</v>
+        <v>2230743.8169625001</v>
       </c>
       <c r="J32">
-        <v>299108</v>
+        <v>5393873</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>210</v>
+        <v>378</v>
       </c>
       <c r="B33">
-        <v>1570.82</v>
+        <v>2697.1935874999999</v>
       </c>
       <c r="C33" s="1">
-        <v>31417105</v>
+        <v>225211944</v>
       </c>
       <c r="D33" s="1">
-        <v>31416400</v>
+        <v>215775487</v>
       </c>
       <c r="E33">
-        <v>2.9952508880711898E-2</v>
+        <v>1677.85949673549</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>86.889763049692405</v>
       </c>
       <c r="G33">
-        <v>82.790171874999999</v>
+        <v>99.999496093749997</v>
       </c>
       <c r="H33">
-        <v>5.9292212938167603</v>
+        <v>8.4287724340485894</v>
       </c>
       <c r="I33">
-        <v>2.82165</v>
+        <v>2362264.0222875001</v>
       </c>
       <c r="J33">
-        <v>314164</v>
+        <v>5394380</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>220</v>
+        <v>380</v>
       </c>
       <c r="B34">
-        <v>1644.4849999999999</v>
+        <v>2697.3586249999998</v>
       </c>
       <c r="C34" s="1">
-        <v>32890528</v>
+        <v>227117582</v>
       </c>
       <c r="D34" s="1">
-        <v>32889700</v>
+        <v>215788690</v>
       </c>
       <c r="E34">
-        <v>6.3910585988926599E-2</v>
+        <v>1968.36592223973</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>87.515897521071096</v>
       </c>
       <c r="G34">
-        <v>86.573218749999995</v>
+        <v>100</v>
       </c>
       <c r="H34">
-        <v>5.9360339134901299</v>
+        <v>8.4292457031249999</v>
       </c>
       <c r="I34">
-        <v>8.5735499999999991</v>
+        <v>2795805.8641499998</v>
       </c>
       <c r="J34">
-        <v>328897</v>
+        <v>5394709</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>230</v>
+        <v>382</v>
       </c>
       <c r="B35">
-        <v>1722.51</v>
+        <v>2697.2811999999999</v>
       </c>
       <c r="C35" s="1">
-        <v>34450996</v>
+        <v>228528821</v>
       </c>
       <c r="D35" s="1">
-        <v>34450200</v>
+        <v>215782496</v>
       </c>
       <c r="E35">
-        <v>0.13072783322012599</v>
+        <v>2243.4313583662301</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>90.914021807919596</v>
       </c>
       <c r="G35">
-        <v>90.626281249999906</v>
+        <v>100</v>
       </c>
       <c r="H35">
-        <v>5.9396056814369098</v>
+        <v>8.4290037499999997</v>
       </c>
       <c r="I35">
-        <v>25.334949999999999</v>
+        <v>3201258.6031875</v>
       </c>
       <c r="J35">
-        <v>344502</v>
+        <v>5394554</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>240</v>
+        <v>384</v>
       </c>
       <c r="B36">
-        <v>1795.875</v>
+        <v>2697.3331125</v>
       </c>
       <c r="C36" s="1">
-        <v>35918406</v>
+        <v>229648395</v>
       </c>
       <c r="D36" s="1">
-        <v>35917500</v>
+        <v>215786649</v>
       </c>
       <c r="E36">
-        <v>0.32351917588918999</v>
+        <v>2435.7218783018702</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>91.369150233749593</v>
       </c>
       <c r="G36">
-        <v>94.328249999999997</v>
+        <v>100</v>
       </c>
       <c r="H36">
-        <v>5.9495531561329704</v>
+        <v>8.4291659765624996</v>
       </c>
       <c r="I36">
-        <v>102.8767</v>
+        <v>3497008.8050374999</v>
       </c>
       <c r="J36">
-        <v>359175</v>
+        <v>5394660</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>250</v>
+        <v>386</v>
       </c>
       <c r="B37">
-        <v>1871.075</v>
+        <v>2697.2853125000001</v>
       </c>
       <c r="C37" s="1">
-        <v>37422205</v>
+        <v>230686851</v>
       </c>
       <c r="D37" s="1">
-        <v>37421500</v>
+        <v>215782825</v>
       </c>
       <c r="E37">
-        <v>0.93296099835655899</v>
+        <v>2598.23170658462</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>90.549542094597399</v>
       </c>
       <c r="G37">
-        <v>98.053281249999998</v>
+        <v>99.9997890625</v>
       </c>
       <c r="H37">
-        <v>5.9631960302195397</v>
+        <v>8.4290343815568907</v>
       </c>
       <c r="I37">
-        <v>465.70425</v>
+        <v>3745779.1511125001</v>
       </c>
       <c r="J37">
-        <v>374215</v>
+        <v>5394564</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>260</v>
+        <v>388</v>
       </c>
       <c r="B38">
-        <v>1920.0061000000001</v>
+        <v>2697.2403749999999</v>
       </c>
       <c r="C38" s="1">
-        <v>38958703</v>
+        <v>231389001</v>
       </c>
       <c r="D38" s="1">
-        <v>38400122</v>
+        <v>215779230</v>
       </c>
       <c r="E38">
-        <v>162.887370342688</v>
+        <v>2685.45285443082</v>
       </c>
       <c r="F38">
-        <v>31.520887099504399</v>
+        <v>91.582996151802007</v>
       </c>
       <c r="G38">
-        <v>99.992531249999999</v>
+        <v>100</v>
       </c>
       <c r="H38">
-        <v>6.0004672223956703</v>
+        <v>8.4288761718750003</v>
       </c>
       <c r="I38">
-        <v>157463.6072</v>
+        <v>3886185.9874875001</v>
       </c>
       <c r="J38">
-        <v>383993</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>270</v>
-      </c>
-      <c r="B39">
-        <v>1920.72405</v>
-      </c>
-      <c r="C39" s="1">
-        <v>40504852</v>
-      </c>
-      <c r="D39" s="1">
-        <v>38414481</v>
-      </c>
-      <c r="E39">
-        <v>516.36734810757605</v>
-      </c>
-      <c r="F39">
-        <v>58.665528183955203</v>
-      </c>
-      <c r="G39">
-        <v>99.997124999999997</v>
-      </c>
-      <c r="H39">
-        <v>6.0024352262627501</v>
-      </c>
-      <c r="I39">
-        <v>522207.20569999999</v>
-      </c>
-      <c r="J39">
-        <v>384137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>280</v>
-      </c>
-      <c r="B40">
-        <v>1920.4963</v>
-      </c>
-      <c r="C40" s="1">
-        <v>41894596</v>
-      </c>
-      <c r="D40" s="1">
-        <v>38409926</v>
-      </c>
-      <c r="E40">
-        <v>822.74232735907003</v>
-      </c>
-      <c r="F40">
-        <v>73.259010861980897</v>
-      </c>
-      <c r="G40">
-        <v>99.998203124999904</v>
-      </c>
-      <c r="H40">
-        <v>6.0016587798062</v>
-      </c>
-      <c r="I40">
-        <v>861043.08360000001</v>
-      </c>
-      <c r="J40">
-        <v>384092</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>290</v>
-      </c>
-      <c r="B41">
-        <v>1920.6496</v>
-      </c>
-      <c r="C41" s="1">
-        <v>43443505</v>
-      </c>
-      <c r="D41" s="1">
-        <v>38412992</v>
-      </c>
-      <c r="E41">
-        <v>1154.74369794934</v>
-      </c>
-      <c r="F41">
-        <v>81.211128784940101</v>
-      </c>
-      <c r="G41">
-        <v>99.996421874999996</v>
-      </c>
-      <c r="H41">
-        <v>6.0022447678205904</v>
-      </c>
-      <c r="I41">
-        <v>1253223.2057</v>
-      </c>
-      <c r="J41">
-        <v>384121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>300</v>
-      </c>
-      <c r="B42">
-        <v>1920.9817</v>
-      </c>
-      <c r="C42" s="1">
-        <v>44928565</v>
-      </c>
-      <c r="D42" s="1">
-        <v>38419634</v>
-      </c>
-      <c r="E42">
-        <v>1441.4663928431</v>
-      </c>
-      <c r="F42">
-        <v>84.427716566585701</v>
-      </c>
-      <c r="G42">
-        <v>99.999359374999997</v>
-      </c>
-      <c r="H42">
-        <v>6.0031062698995399</v>
-      </c>
-      <c r="I42">
-        <v>1620704.3416500001</v>
-      </c>
-      <c r="J42">
-        <v>384189</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>310</v>
-      </c>
-      <c r="B43">
-        <v>1920.21495</v>
-      </c>
-      <c r="C43" s="1">
-        <v>46467131</v>
-      </c>
-      <c r="D43" s="1">
-        <v>38404299</v>
-      </c>
-      <c r="E43">
-        <v>1724.34188461498</v>
-      </c>
-      <c r="F43">
-        <v>87.036371590163398</v>
-      </c>
-      <c r="G43">
-        <v>100</v>
-      </c>
-      <c r="H43">
-        <v>6.0006717187499996</v>
-      </c>
-      <c r="I43">
-        <v>2004806.4042499999</v>
-      </c>
-      <c r="J43">
-        <v>384036</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>320</v>
-      </c>
-      <c r="B44">
-        <v>1920.48325</v>
-      </c>
-      <c r="C44" s="1">
-        <v>47885544</v>
-      </c>
-      <c r="D44" s="1">
-        <v>38409665</v>
-      </c>
-      <c r="E44">
-        <v>1970.51539482933</v>
-      </c>
-      <c r="F44">
-        <v>88.550079408471902</v>
-      </c>
-      <c r="G44">
-        <v>100</v>
-      </c>
-      <c r="H44">
-        <v>6.0015101562500002</v>
-      </c>
-      <c r="I44">
-        <v>2358512.3537499998</v>
-      </c>
-      <c r="J44">
-        <v>384090</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>330</v>
-      </c>
-      <c r="B45">
-        <v>1919.5843</v>
-      </c>
-      <c r="C45" s="1">
-        <v>49484216</v>
-      </c>
-      <c r="D45" s="1">
-        <v>38391686</v>
-      </c>
-      <c r="E45">
-        <v>2253.2786155052299</v>
-      </c>
-      <c r="F45">
-        <v>90.342763519479803</v>
-      </c>
-      <c r="G45">
-        <v>100</v>
-      </c>
-      <c r="H45">
-        <v>5.9987009374999998</v>
-      </c>
-      <c r="I45">
-        <v>2784170.3525999999</v>
-      </c>
-      <c r="J45">
-        <v>383909</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>340</v>
-      </c>
-      <c r="B46">
-        <v>1920.3387</v>
-      </c>
-      <c r="C46" s="1">
-        <v>50919519</v>
-      </c>
-      <c r="D46" s="1">
-        <v>38406774</v>
-      </c>
-      <c r="E46">
-        <v>2463.12563955017</v>
-      </c>
-      <c r="F46">
-        <v>90.889941389213604</v>
-      </c>
-      <c r="G46">
-        <v>100</v>
-      </c>
-      <c r="H46">
-        <v>6.0010584375000002</v>
-      </c>
-      <c r="I46">
-        <v>3133370.55345</v>
-      </c>
-      <c r="J46">
-        <v>384059</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>350</v>
-      </c>
-      <c r="B47">
-        <v>1920.55765</v>
-      </c>
-      <c r="C47" s="1">
-        <v>52417855</v>
-      </c>
-      <c r="D47" s="1">
-        <v>38411153</v>
-      </c>
-      <c r="E47">
-        <v>2665.8464322162699</v>
-      </c>
-      <c r="F47">
-        <v>91.593682960864697</v>
-      </c>
-      <c r="G47">
-        <v>100</v>
-      </c>
-      <c r="H47">
-        <v>6.0017426562500003</v>
-      </c>
-      <c r="I47">
-        <v>3496189.5865500001</v>
-      </c>
-      <c r="J47">
-        <v>384104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>360</v>
-      </c>
-      <c r="B48">
-        <v>1921.1977999999999</v>
-      </c>
-      <c r="C48" s="1">
-        <v>53818550</v>
-      </c>
-      <c r="D48" s="1">
-        <v>38423956</v>
-      </c>
-      <c r="E48">
-        <v>2861.65480751212</v>
-      </c>
-      <c r="F48">
-        <v>92.2434883091465</v>
-      </c>
-      <c r="G48">
-        <v>99.999968749999994</v>
-      </c>
-      <c r="H48">
-        <v>6.0037450011703104</v>
-      </c>
-      <c r="I48">
-        <v>3847054.4773499998</v>
-      </c>
-      <c r="J48">
-        <v>384232</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>370</v>
-      </c>
-      <c r="B49">
-        <v>1920.3669500000001</v>
-      </c>
-      <c r="C49" s="1">
-        <v>55333036</v>
-      </c>
-      <c r="D49" s="1">
-        <v>38407339</v>
-      </c>
-      <c r="E49">
-        <v>3074.3179236955998</v>
-      </c>
-      <c r="F49">
-        <v>92.779384846914695</v>
-      </c>
-      <c r="G49">
-        <v>100</v>
-      </c>
-      <c r="H49">
-        <v>6.0011467187500003</v>
-      </c>
-      <c r="I49">
-        <v>4244339.7555499999</v>
-      </c>
-      <c r="J49">
-        <v>384067</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>380</v>
-      </c>
-      <c r="B50">
-        <v>1920.1795</v>
-      </c>
-      <c r="C50" s="1">
-        <v>56949662</v>
-      </c>
-      <c r="D50" s="1">
-        <v>38403590</v>
-      </c>
-      <c r="E50">
-        <v>3276.8891591238098</v>
-      </c>
-      <c r="F50">
-        <v>93.233566302457106</v>
-      </c>
-      <c r="G50">
-        <v>99.998968749999904</v>
-      </c>
-      <c r="H50">
-        <v>6.0006228189228201</v>
-      </c>
-      <c r="I50">
-        <v>4658188.6640499998</v>
-      </c>
-      <c r="J50">
-        <v>384028</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>390</v>
-      </c>
-      <c r="B51">
-        <v>1921.2083500000001</v>
-      </c>
-      <c r="C51" s="1">
-        <v>58402095</v>
-      </c>
-      <c r="D51" s="1">
-        <v>38424167</v>
-      </c>
-      <c r="E51">
-        <v>3413.3007924837598</v>
-      </c>
-      <c r="F51">
-        <v>93.327000403398898</v>
-      </c>
-      <c r="G51">
-        <v>100</v>
-      </c>
-      <c r="H51">
-        <v>6.00377609375</v>
-      </c>
-      <c r="I51">
-        <v>4988895.84045</v>
-      </c>
-      <c r="J51">
-        <v>384235</v>
+        <v>5394473</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
